--- a/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Neuropatía (INC).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Neuropatía (INC).xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66.05671053247457</v>
+        <v>66.13536318407947</v>
       </c>
       <c r="B2" t="n">
-        <v>50.17765149789421</v>
+        <v>51.212</v>
       </c>
       <c r="C2" t="n">
-        <v>79.93635793650795</v>
+        <v>79.91999999999996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.959875511332219</v>
+        <v>7.00907462686566</v>
       </c>
       <c r="B3" t="n">
-        <v>3.571115195915195</v>
+        <v>3.5</v>
       </c>
       <c r="C3" t="n">
-        <v>11.8023619047619</v>
+        <v>11.628</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15.10412448866779</v>
+        <v>15.10718407960198</v>
       </c>
       <c r="B4" t="n">
-        <v>7.993492677400575</v>
+        <v>8.151999999999994</v>
       </c>
       <c r="C4" t="n">
-        <v>23.21233333333333</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.436402005843773</v>
+        <v>8.425830845771129</v>
       </c>
       <c r="B5" t="n">
-        <v>4.243598207783498</v>
+        <v>4.112000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>12.82523809523809</v>
+        <v>12.86799999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>33.52333594461547</v>
+        <v>33.52193034825862</v>
       </c>
       <c r="B6" t="n">
-        <v>21.78128594407542</v>
+        <v>21.5</v>
       </c>
       <c r="C6" t="n">
-        <v>47.05266666666667</v>
+        <v>46.956</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61.6930894416803</v>
+        <v>61.57703482587047</v>
       </c>
       <c r="B7" t="n">
-        <v>45.0713625568284</v>
+        <v>45.13199999999997</v>
       </c>
       <c r="C7" t="n">
-        <v>77.15330476190476</v>
+        <v>77.52000000000005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>90.94486869620141</v>
+        <v>91.00686567164175</v>
       </c>
       <c r="B8" t="n">
-        <v>82.77075094361609</v>
+        <v>83.13999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>95.98307692307689</v>
+        <v>96.13599999999995</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>31.40410100292185</v>
+        <v>31.34748258706461</v>
       </c>
       <c r="B9" t="n">
-        <v>19.36600945550839</v>
+        <v>18.06</v>
       </c>
       <c r="C9" t="n">
-        <v>44.30466666666666</v>
+        <v>43.76399999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>90.98186231937443</v>
+        <v>90.95800995024865</v>
       </c>
       <c r="B10" t="n">
-        <v>82.57422862028248</v>
+        <v>82.67600000000004</v>
       </c>
       <c r="C10" t="n">
-        <v>96.16468748609488</v>
+        <v>96.16800000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77.7108400022494</v>
+        <v>78.03156218905455</v>
       </c>
       <c r="B11" t="n">
-        <v>63.14637096264584</v>
+        <v>62.47600000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>88.33735323565324</v>
+        <v>88.53999999999998</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>53.30466069651733</v>
+        <v>53.24171144278596</v>
       </c>
       <c r="B12" t="n">
-        <v>35.85463459252021</v>
+        <v>35.47999999999998</v>
       </c>
       <c r="C12" t="n">
-        <v>69.80786666666664</v>
+        <v>69.78799999999997</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>88.95240823320279</v>
+        <v>89.05251741293527</v>
       </c>
       <c r="B13" t="n">
-        <v>78.96088922406067</v>
+        <v>79.33599999999997</v>
       </c>
       <c r="C13" t="n">
-        <v>95.10546813249262</v>
+        <v>95.21600000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>84.7373352277443</v>
+        <v>84.72591044776105</v>
       </c>
       <c r="B14" t="n">
-        <v>72.98732512837165</v>
+        <v>73.49199999999995</v>
       </c>
       <c r="C14" t="n">
-        <v>92.6124576861047</v>
+        <v>92.83199999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9.379178962331213</v>
+        <v>9.366427860696511</v>
       </c>
       <c r="B15" t="n">
-        <v>5.060873285875916</v>
+        <v>4.883999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>15.07179047619048</v>
+        <v>15.04000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>33.56388276606378</v>
+        <v>33.41556218905465</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7057092244987</v>
+        <v>21.12799999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>46.30266666666667</v>
+        <v>46.768</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>53.40585074626863</v>
+        <v>52.99205970149245</v>
       </c>
       <c r="B17" t="n">
-        <v>35.71695053213615</v>
+        <v>36.45999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>69.80633333333334</v>
+        <v>69.54400000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15.10197523493644</v>
+        <v>15.06483582089552</v>
       </c>
       <c r="B18" t="n">
-        <v>7.986559344067243</v>
+        <v>8.115999999999993</v>
       </c>
       <c r="C18" t="n">
-        <v>23.08933333333333</v>
+        <v>23.068</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>78.81921998066412</v>
+        <v>78.82869651741282</v>
       </c>
       <c r="B19" t="n">
-        <v>64.47344736674863</v>
+        <v>63.696</v>
       </c>
       <c r="C19" t="n">
-        <v>89.52699926739928</v>
+        <v>89.236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>36.56564043275674</v>
+        <v>36.61416915422874</v>
       </c>
       <c r="B20" t="n">
-        <v>22.42184498024622</v>
+        <v>22.72</v>
       </c>
       <c r="C20" t="n">
-        <v>52.96600000000002</v>
+        <v>52.78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19.98369943931132</v>
+        <v>20.0030646766169</v>
       </c>
       <c r="B21" t="n">
-        <v>11.6218057877852</v>
+        <v>11.43199999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>29.36953333333333</v>
+        <v>29.38400000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>91.40006956528002</v>
+        <v>91.35667661691535</v>
       </c>
       <c r="B22" t="n">
-        <v>82.59939711688959</v>
+        <v>82.18000000000004</v>
       </c>
       <c r="C22" t="n">
-        <v>96.41378973698411</v>
+        <v>96.47199999999997</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.42578396904365</v>
+        <v>10.43315422885571</v>
       </c>
       <c r="B23" t="n">
-        <v>5.572160602263236</v>
+        <v>5.752000000000002</v>
       </c>
       <c r="C23" t="n">
-        <v>16.73720000000001</v>
+        <v>16.76400000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>33.62200622285391</v>
+        <v>33.45353233830838</v>
       </c>
       <c r="B24" t="n">
-        <v>21.68366701670649</v>
+        <v>21.164</v>
       </c>
       <c r="C24" t="n">
-        <v>46.30266666666667</v>
+        <v>46.756</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>29.01897084945632</v>
+        <v>29.02539303482581</v>
       </c>
       <c r="B25" t="n">
-        <v>17.54113000021422</v>
+        <v>17.56799999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>42.48086666666668</v>
+        <v>42.42800000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>19.74865892758427</v>
+        <v>19.64055721393035</v>
       </c>
       <c r="B26" t="n">
-        <v>11.66257180510122</v>
+        <v>12.012</v>
       </c>
       <c r="C26" t="n">
-        <v>28.78613333333331</v>
+        <v>28.93599999999998</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>89.25604365319249</v>
+        <v>89.19104477611931</v>
       </c>
       <c r="B27" t="n">
-        <v>78.95771279975251</v>
+        <v>77.73200000000006</v>
       </c>
       <c r="C27" t="n">
-        <v>95.41951629773736</v>
+        <v>95.47199999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>64.51165910131876</v>
+        <v>64.38459701492525</v>
       </c>
       <c r="B28" t="n">
-        <v>47.02352727548207</v>
+        <v>47.048</v>
       </c>
       <c r="C28" t="n">
-        <v>78.39529523809524</v>
+        <v>78.25199999999994</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10.62708059701491</v>
+        <v>10.62479601990049</v>
       </c>
       <c r="B29" t="n">
-        <v>5.573493935596569</v>
+        <v>5.872000000000003</v>
       </c>
       <c r="C29" t="n">
-        <v>16.78886666666666</v>
+        <v>16.768</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>52.02606027797515</v>
+        <v>51.18905472636802</v>
       </c>
       <c r="B30" t="n">
-        <v>34.2546017664024</v>
+        <v>34.492</v>
       </c>
       <c r="C30" t="n">
-        <v>66.63327878787878</v>
+        <v>66.67599999999995</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>84.52823656848035</v>
+        <v>84.55832835820891</v>
       </c>
       <c r="B31" t="n">
-        <v>71.50920549125497</v>
+        <v>72.86800000000005</v>
       </c>
       <c r="C31" t="n">
-        <v>92.21078398268396</v>
+        <v>92.38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>88.01481715628196</v>
+        <v>88.19299502487554</v>
       </c>
       <c r="B32" t="n">
-        <v>78.13382172300997</v>
+        <v>77.64000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>94.39875404765512</v>
+        <v>94.36800000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>84.91653431695431</v>
+        <v>84.90750248756206</v>
       </c>
       <c r="B33" t="n">
-        <v>72.99376957281611</v>
+        <v>73.56799999999996</v>
       </c>
       <c r="C33" t="n">
-        <v>92.76936158220862</v>
+        <v>92.72800000000007</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>69.3117376293137</v>
+        <v>69.08981094527357</v>
       </c>
       <c r="B34" t="n">
-        <v>53.15585315167576</v>
+        <v>52.488</v>
       </c>
       <c r="C34" t="n">
-        <v>82.79439999999995</v>
+        <v>82.62799999999994</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34.93393806628226</v>
+        <v>34.9180895522387</v>
       </c>
       <c r="B35" t="n">
-        <v>21.7150744241139</v>
+        <v>21.54000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>48.0748</v>
+        <v>48.288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>60.99607805417346</v>
+        <v>61.06722388059693</v>
       </c>
       <c r="B36" t="n">
-        <v>45.0713625568284</v>
+        <v>44.712</v>
       </c>
       <c r="C36" t="n">
-        <v>76.75423809523812</v>
+        <v>76.18400000000004</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>21.11476064123816</v>
+        <v>21.44835820895515</v>
       </c>
       <c r="B37" t="n">
-        <v>12.10169545737487</v>
+        <v>12.49199999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>33.18599999999999</v>
+        <v>33.02799999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>85.26563143525895</v>
+        <v>85.28774129353222</v>
       </c>
       <c r="B38" t="n">
-        <v>74.25780575970872</v>
+        <v>74.54000000000002</v>
       </c>
       <c r="C38" t="n">
-        <v>93.11629467134175</v>
+        <v>93.12400000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>55.02024543946924</v>
+        <v>55.25084577114425</v>
       </c>
       <c r="B39" t="n">
-        <v>38.68411221741224</v>
+        <v>39.33599999999997</v>
       </c>
       <c r="C39" t="n">
-        <v>70.55466666666668</v>
+        <v>70.78000000000003</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>17.58098610123981</v>
+        <v>17.57880597014923</v>
       </c>
       <c r="B40" t="n">
-        <v>9.627365145673041</v>
+        <v>10.46000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>26.2717541125541</v>
+        <v>26.48399999999998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>58.88659369817582</v>
+        <v>58.81838805970135</v>
       </c>
       <c r="B41" t="n">
-        <v>41.74640899470901</v>
+        <v>42.38400000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>73.47799999999999</v>
+        <v>73.32400000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>78.38510745191782</v>
+        <v>78.35008955223866</v>
       </c>
       <c r="B42" t="n">
-        <v>64.23212476157597</v>
+        <v>63.82399999999998</v>
       </c>
       <c r="C42" t="n">
-        <v>88.60495164835169</v>
+        <v>88.81200000000003</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>52.01928084182258</v>
+        <v>51.06260696517399</v>
       </c>
       <c r="B43" t="n">
-        <v>34.23535631185694</v>
+        <v>34.80400000000002</v>
       </c>
       <c r="C43" t="n">
-        <v>66.50354545454545</v>
+        <v>66.41199999999998</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>72.34593145384176</v>
+        <v>72.37426865671637</v>
       </c>
       <c r="B44" t="n">
-        <v>56.22615843045842</v>
+        <v>54.69600000000002</v>
       </c>
       <c r="C44" t="n">
-        <v>84.75163333333334</v>
+        <v>84.66000000000005</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>79.84136299455101</v>
+        <v>79.97120398009936</v>
       </c>
       <c r="B45" t="n">
-        <v>66.34522295315625</v>
+        <v>68.38799999999996</v>
       </c>
       <c r="C45" t="n">
-        <v>89.63897619047619</v>
+        <v>89.65599999999996</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>83.25381757877264</v>
+        <v>83.14489552238786</v>
       </c>
       <c r="B46" t="n">
-        <v>70.44749650829893</v>
+        <v>70.93999999999998</v>
       </c>
       <c r="C46" t="n">
-        <v>91.70527272727271</v>
+        <v>91.79600000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>91.42871299168242</v>
+        <v>91.32306467661674</v>
       </c>
       <c r="B47" t="n">
-        <v>82.58875476407333</v>
+        <v>82.69999999999996</v>
       </c>
       <c r="C47" t="n">
-        <v>96.42728437374832</v>
+        <v>96.34800000000003</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>53.33069718076276</v>
+        <v>53.10093532338296</v>
       </c>
       <c r="B48" t="n">
-        <v>35.85596792585354</v>
+        <v>35.29199999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>70.16966666666663</v>
+        <v>69.27199999999995</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>16.07560609650163</v>
+        <v>16.03295522388058</v>
       </c>
       <c r="B49" t="n">
-        <v>9.071893463651355</v>
+        <v>9.396000000000006</v>
       </c>
       <c r="C49" t="n">
-        <v>24.98811601731601</v>
+        <v>24.62</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20.8933357024401</v>
+        <v>21.07265671641781</v>
       </c>
       <c r="B50" t="n">
-        <v>12.04425534193476</v>
+        <v>11.736</v>
       </c>
       <c r="C50" t="n">
-        <v>32.36399999999998</v>
+        <v>32.42799999999998</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6.964916970702035</v>
+        <v>6.999820895522375</v>
       </c>
       <c r="B51" t="n">
-        <v>3.566837418137418</v>
+        <v>3.452000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>12.0477619047619</v>
+        <v>11.656</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>81.72473189607516</v>
+        <v>81.76724378109454</v>
       </c>
       <c r="B52" t="n">
-        <v>68.4579953712954</v>
+        <v>66.90399999999998</v>
       </c>
       <c r="C52" t="n">
-        <v>90.46484733044731</v>
+        <v>90.46799999999998</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>55.11338640132663</v>
+        <v>55.13892537313427</v>
       </c>
       <c r="B53" t="n">
-        <v>38.69744555074558</v>
+        <v>39.12799999999998</v>
       </c>
       <c r="C53" t="n">
-        <v>70.758</v>
+        <v>71.21600000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9.379178962331213</v>
+        <v>9.366447761194022</v>
       </c>
       <c r="B54" t="n">
-        <v>5.100158711561341</v>
+        <v>4.895999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>15.06512380952381</v>
+        <v>15.03200000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>19.79606649293215</v>
+        <v>19.65818905472637</v>
       </c>
       <c r="B55" t="n">
-        <v>11.64492844290786</v>
+        <v>11.54</v>
       </c>
       <c r="C55" t="n">
-        <v>29.37753333333332</v>
+        <v>29.65599999999998</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>84.55627403195643</v>
+        <v>84.38185074626848</v>
       </c>
       <c r="B56" t="n">
-        <v>71.55377398572345</v>
+        <v>71.59600000000002</v>
       </c>
       <c r="C56" t="n">
-        <v>92.460544011544</v>
+        <v>92.07200000000006</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>88.01481715628196</v>
+        <v>88.13755223880592</v>
       </c>
       <c r="B57" t="n">
-        <v>78.13382172300997</v>
+        <v>77.77200000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>94.41081119051226</v>
+        <v>94.46400000000003</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>21.25934549474835</v>
+        <v>21.55313432835809</v>
       </c>
       <c r="B58" t="n">
-        <v>12.15546424044366</v>
+        <v>12.688</v>
       </c>
       <c r="C58" t="n">
-        <v>33.92999999999999</v>
+        <v>33.76799999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>76.53896577167062</v>
+        <v>76.3960995024874</v>
       </c>
       <c r="B59" t="n">
-        <v>59.83144735732105</v>
+        <v>60.236</v>
       </c>
       <c r="C59" t="n">
-        <v>87.58478730158731</v>
+        <v>87.78400000000002</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>10.40137423991153</v>
+        <v>10.40179104477611</v>
       </c>
       <c r="B60" t="n">
-        <v>5.528608509911144</v>
+        <v>5.344000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>16.33000000000001</v>
+        <v>16.33200000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>85.12956825405095</v>
+        <v>85.19186069651734</v>
       </c>
       <c r="B61" t="n">
-        <v>73.49408784136673</v>
+        <v>73.83199999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>92.92711396316099</v>
+        <v>92.71200000000003</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>77.72039645280088</v>
+        <v>78.01452736318393</v>
       </c>
       <c r="B62" t="n">
-        <v>63.2553095259344</v>
+        <v>63.32</v>
       </c>
       <c r="C62" t="n">
-        <v>88.46478656898657</v>
+        <v>88.73999999999998</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>85.76635671641789</v>
+        <v>85.68069651741276</v>
       </c>
       <c r="B63" t="n">
-        <v>74.53085612600911</v>
+        <v>75.07199999999995</v>
       </c>
       <c r="C63" t="n">
-        <v>93.04235700900408</v>
+        <v>93.15199999999993</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10.53702664455498</v>
+        <v>10.53799004975124</v>
       </c>
       <c r="B64" t="n">
-        <v>5.542756128958763</v>
+        <v>5.704000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>16.47833333333334</v>
+        <v>16.492</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>87.39281524915098</v>
+        <v>87.42234825870635</v>
       </c>
       <c r="B65" t="n">
-        <v>77.80749140100451</v>
+        <v>77.71600000000002</v>
       </c>
       <c r="C65" t="n">
-        <v>94.07244391392923</v>
+        <v>93.82800000000002</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>68.32181207843193</v>
+        <v>68.37795024875614</v>
       </c>
       <c r="B66" t="n">
-        <v>52.04917373923634</v>
+        <v>51.10400000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>82.23031111111104</v>
+        <v>82.24399999999994</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>67.26316112822127</v>
+        <v>66.86718407960193</v>
       </c>
       <c r="B67" t="n">
-        <v>50.31864397208669</v>
+        <v>50.78</v>
       </c>
       <c r="C67" t="n">
-        <v>80.64227222222223</v>
+        <v>80.86</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>18.90495028560897</v>
+        <v>19.01323383084576</v>
       </c>
       <c r="B68" t="n">
-        <v>11.35847681305623</v>
+        <v>11.104</v>
       </c>
       <c r="C68" t="n">
-        <v>28.94553333333332</v>
+        <v>28.94799999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>91.54477506310721</v>
+        <v>91.54979104477596</v>
       </c>
       <c r="B69" t="n">
-        <v>82.89987727291695</v>
+        <v>83.20400000000004</v>
       </c>
       <c r="C69" t="n">
-        <v>96.56505074648059</v>
+        <v>96.56399999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>17.62507056779589</v>
+        <v>17.63389054726368</v>
       </c>
       <c r="B70" t="n">
-        <v>9.612854034561931</v>
+        <v>9.912000000000006</v>
       </c>
       <c r="C70" t="n">
-        <v>26.35262077922077</v>
+        <v>26.468</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>42.57612570480919</v>
+        <v>42.62117412935316</v>
       </c>
       <c r="B71" t="n">
-        <v>27.77524440738599</v>
+        <v>27.52000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>57.0956666666667</v>
+        <v>56.91200000000004</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>48.12284637131786</v>
+        <v>48.58551243781078</v>
       </c>
       <c r="B72" t="n">
-        <v>31.54088586717606</v>
+        <v>30.70800000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>63.34578571428574</v>
+        <v>62.57200000000003</v>
       </c>
     </row>
   </sheetData>
